--- a/biology/Zoologie/Club_des_éleveurs_amateurs_d'oiseaux_exotiques/Club_des_éleveurs_amateurs_d'oiseaux_exotiques.xlsx
+++ b/biology/Zoologie/Club_des_éleveurs_amateurs_d'oiseaux_exotiques/Club_des_éleveurs_amateurs_d'oiseaux_exotiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club_des_%C3%A9leveurs_amateurs_d%27oiseaux_exotiques</t>
+          <t>Club_des_éleveurs_amateurs_d'oiseaux_exotiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Club des éleveurs d'oiseaux exotiques (CDE) est une association française loi de 1901 créée en avril 1966.
 Elle regroupe les éleveurs amateurs d'oiseaux exotiques de France métropolitaine et d'outre-mer, mobilise et responsabilise ses adhérents aux règles de la détention d'oiseaux, participe à la protection mondiale d'espèces diverses et publie la Revue des oiseaux exotiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club_des_%C3%A9leveurs_amateurs_d%27oiseaux_exotiques</t>
+          <t>Club_des_éleveurs_amateurs_d'oiseaux_exotiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Adhérents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, elle compte plus de 7 000 adhérents, faisant d'elle la plus importante des 4 associations françaises d'oiseaux de cages et de volières.
 </t>
